--- a/CampDeBases/Sud-Ouest/Docs/2015-04-20 gsoi - sourcing infocentre.xlsx
+++ b/CampDeBases/Sud-Ouest/Docs/2015-04-20 gsoi - sourcing infocentre.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Camp de bases\Projects\CampDeBases\Sud-Ouest\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BRUT!$A$1:$N$453</definedName>
@@ -59,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="888">
   <si>
     <t>NomSource</t>
   </si>
@@ -2660,6 +2664,69 @@
   </si>
   <si>
     <t>Typol. contacts</t>
+  </si>
+  <si>
+    <t>Подписки контракт с контакта. Они отличаются от покупки на месте преступления, что они имеют начало и конец.</t>
+  </si>
+  <si>
+    <t>Маркетинговые действия, которые пострадали от контактов и отслеживания которого обратно в базу данных качества Mart. Отслеживание консолидировала маркетинговую акцию (статистика реакции всех контактов, пострадавших от каждой маркетинговой акции).</t>
+  </si>
+  <si>
+    <t>Каталог продуктов типа "Подписки" всей Юго-Западной группы.</t>
+  </si>
+  <si>
+    <t>Каталог продукции типа "Покупки" всего Юго-Западной группы.</t>
+  </si>
+  <si>
+    <t>Интересы объявлена ​​или записаны контакты.</t>
+  </si>
+  <si>
+    <t>Согласия по электронной почте каждый контакт для каждого содержания предоставленной на юго-западе группы. Реакция Статистика консолидируются для каждого согласия (все реакции, собранные для каждого контакта, все маркетинговые действия, полученные за определенный согласия).</t>
+  </si>
+  <si>
+    <t>Контакты, клиенты или перспективы, Юго-Западная группа. Связанные отслеживания консолидируется для каждого контакта (статистика реакций каждого контакта для всех маркетинговых действий, в которых он был, подверженных).</t>
+  </si>
+  <si>
+    <t>Содержание доступно на юго-западе группы по электронной почте канал, на котором отказ в (редакция, коммерческие партнеры).</t>
+  </si>
+  <si>
+    <t>Содержание доступно на юго-западе группы по мобильным канала, на котором выбор в.</t>
+  </si>
+  <si>
+    <t>Дебет прикрепленные к контакту Юго-Западная группа. Прямой дебет почтовый адрес (домашний адрес, рабочий адрес, среднее место жительства и т.д.).</t>
+  </si>
+  <si>
+    <t>Дома, в которых сгруппированы контакты, клиентов или перспективы Юго-Западная Группа. Дом место общего жилища (тот же адрес, тем же именем).</t>
+  </si>
+  <si>
+    <t>Географические интересы объявлена ​​или записаны контакты.</t>
+  </si>
+  <si>
+    <t>Мобильные Согласия (уведомления) каждого контакта для каждого содержания предоставленной на юго-западе группы. Реакция Статистика консолидируются для каждого согласия (все реакции, собранные для каждого контакта, все мобильные уведомлений для определенного согласия).</t>
+  </si>
+  <si>
+    <t>Продукты, которые приобрели контакты, такие как статьи на единстве пачек предметов и т.д.</t>
+  </si>
+  <si>
+    <t>Претензии по контактам или инцидентов, с которыми сталкиваются при контакте.</t>
+  </si>
+  <si>
+    <t>Сущность, посвященный измерению связи между контактом и марки West Group.</t>
+  </si>
+  <si>
+    <t>Список веб-сайтов и мобильных приложений Юго-Запад Группа брендов.</t>
+  </si>
+  <si>
+    <t>Отслеживание каждого контакта (контакт, который привел источники, сырье профили используются для построения и т.д.).</t>
+  </si>
+  <si>
+    <t>Отслеживание реакции каждого контакта с воздействием каждого маркетинговой акции (отверстия, клики, отписывается, и т.д.).</t>
+  </si>
+  <si>
+    <t>Отслеживание каждого контакта на веб-сайтах или мобильных приложений Юго-Запад Группа брендов (визиты, взносы и т.д.).</t>
+  </si>
+  <si>
+    <t>Типология контактов, основанных на их покупательной профиль, их потребления, их вкусовой привлекательности.</t>
   </si>
 </sst>
 </file>
@@ -3778,7 +3845,7 @@
     <xf numFmtId="0" fontId="39" fillId="53" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3841,6 +3908,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="192" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="192" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="192" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="192" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="305">
     <cellStyle name="20 % - Accent1 2" xfId="2"/>
@@ -4198,6 +4271,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -7443,23 +7519,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tables"/>
-      <sheetName val="BRUT"/>
-      <sheetName val="entities"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7758,12 +7817,12 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" style="4" customWidth="1"/>
   </cols>
@@ -9560,21 +9619,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="3.140625" customWidth="1"/>
     <col min="10" max="10" width="33.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="7"/>
@@ -21995,202 +22054,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.7109375" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="23"/>
+    <col min="4" max="4" width="83.85546875" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>822</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>824</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="D3" s="25" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>826</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="25" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>828</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="25" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>830</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="25" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>832</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="D7" s="25" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>834</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="25" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>836</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D9" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>838</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="25" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
         <v>840</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D11" s="25" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>842</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D12" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>844</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="25" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>846</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="D14" s="25" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>848</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D15" s="25" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>850</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="25" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>852</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="25" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
         <v>854</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="25" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
         <v>856</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="25" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>858</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D20" s="25" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>860</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D21" s="25" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
         <v>862</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="25" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>864</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D23" s="25" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>866</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>865</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>887</v>
       </c>
     </row>
   </sheetData>
